--- a/Outputs/1. Budget/Output Files/400000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Output Files/400000/Output_6_32.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262595.293204843</v>
+        <v>2262596.855708503</v>
       </c>
     </row>
     <row r="7">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367102.8775871561</v>
+        <v>367102.7355437446</v>
       </c>
       <c r="C4" t="n">
-        <v>367102.8775871561</v>
+        <v>367102.7355437446</v>
       </c>
       <c r="D4" t="n">
-        <v>367102.8775871562</v>
+        <v>367102.7355437446</v>
       </c>
       <c r="E4" t="n">
-        <v>73834.24974979705</v>
+        <v>73834.04170303042</v>
       </c>
       <c r="F4" t="n">
-        <v>73834.24974979705</v>
+        <v>73834.04170303044</v>
       </c>
       <c r="G4" t="n">
-        <v>73834.24974979718</v>
+        <v>73834.04170303055</v>
       </c>
       <c r="H4" t="n">
-        <v>73834.24974979718</v>
+        <v>73834.04170303055</v>
       </c>
       <c r="I4" t="n">
-        <v>76593.45865841825</v>
+        <v>76593.24927257477</v>
       </c>
       <c r="J4" t="n">
-        <v>76593.45865841796</v>
+        <v>76593.24927257445</v>
       </c>
       <c r="K4" t="n">
-        <v>76593.4586584184</v>
+        <v>76593.24927257489</v>
       </c>
       <c r="L4" t="n">
-        <v>76593.45865841824</v>
+        <v>76593.24927257473</v>
       </c>
       <c r="M4" t="n">
-        <v>73834.24974979713</v>
+        <v>73834.04170303054</v>
       </c>
       <c r="N4" t="n">
-        <v>73834.24974979715</v>
+        <v>73834.04170303053</v>
       </c>
       <c r="O4" t="n">
-        <v>51597.96471396685</v>
+        <v>51597.75666720024</v>
       </c>
       <c r="P4" t="n">
-        <v>51597.96471396649</v>
+        <v>51597.75666719987</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238629.9962193696</v>
+        <v>238630.1382627811</v>
       </c>
       <c r="C6" t="n">
-        <v>253419.7022236134</v>
+        <v>253419.8442670249</v>
       </c>
       <c r="D6" t="n">
-        <v>253419.7022236135</v>
+        <v>253419.8442670251</v>
       </c>
       <c r="E6" t="n">
-        <v>-89620.85795381706</v>
+        <v>-89620.64990705048</v>
       </c>
       <c r="F6" t="n">
-        <v>342559.2025261085</v>
+        <v>342559.4105728751</v>
       </c>
       <c r="G6" t="n">
-        <v>342559.2025261085</v>
+        <v>342559.4105728751</v>
       </c>
       <c r="H6" t="n">
-        <v>342559.2025261086</v>
+        <v>342559.4105728752</v>
       </c>
       <c r="I6" t="n">
-        <v>340500.1989455821</v>
+        <v>340500.4083314256</v>
       </c>
       <c r="J6" t="n">
-        <v>320204.1101365682</v>
+        <v>320204.3195224117</v>
       </c>
       <c r="K6" t="n">
-        <v>344077.853184028</v>
+        <v>344078.0625698715</v>
       </c>
       <c r="L6" t="n">
-        <v>344077.8531840284</v>
+        <v>344078.062569872</v>
       </c>
       <c r="M6" t="n">
-        <v>206939.6144778435</v>
+        <v>206939.8225246101</v>
       </c>
       <c r="N6" t="n">
-        <v>342559.2025261085</v>
+        <v>342559.4105728751</v>
       </c>
       <c r="O6" t="n">
-        <v>334963.9776766423</v>
+        <v>334964.1857234089</v>
       </c>
       <c r="P6" t="n">
-        <v>334963.9776766425</v>
+        <v>334964.1857234091</v>
       </c>
     </row>
   </sheetData>
